--- a/biology/Zoologie/Aphidius_ervi/Aphidius_ervi.xlsx
+++ b/biology/Zoologie/Aphidius_ervi/Aphidius_ervi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphidius fumipennis, Aphidius infirmus, Aphidius medicaginis, Aphidius mirotarsi, Aphidius nigrescens, Aphidius ulmi
 Aphidius ervi est une espèce d'hyménoptères de la sous-famille des Aphidiinae de petite taille (quelques millimètres). 
@@ -512,7 +524,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette guêpe parasitoïde parasite les pucerons, et plus spécialement le puceron vert de la tomate (Macrosiphum euphorbiae), le puceron de la digitale (Aulacorthum solani), le puceron vert du pêcher (Myzus persicae). 
 La femelle parasitoïde pond ses œufs dans le puceron. L’œuf se développe à l’intérieur du puceron. Une dizaine de jours après le parasitisme, la larve d’Aphidius ervi fixe le puceron sur la feuille et tisse un cocon dans le puceron pour former une momie.
@@ -544,7 +558,9 @@
           <t>Lutte biologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphidius ervi est utilisé en lutte biologique contre les pucerons.
 </t>
